--- a/REGULAR/OJT/NEW DONE/REYES, NORALYN BEDUA.xlsx
+++ b/REGULAR/OJT/NEW DONE/REYES, NORALYN BEDUA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09ED645-C936-4682-B47A-B2EE702AE70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDF485-9717-4F1E-997C-B49C7F758471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="373">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1151,6 +1151,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>6/26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -3615,10 +3618,10 @@
   </sheetPr>
   <dimension ref="A2:K535"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1800" topLeftCell="A483" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="J486" sqref="J486"/>
+      <selection pane="bottomLeft" activeCell="B490" sqref="B490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3781,7 +3784,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>79.075500000000034</v>
+        <v>82.825500000000034</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3791,7 +3794,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>163.75</v>
+        <v>165.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14628,7 +14631,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13">
@@ -14648,7 +14651,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13">
@@ -14668,7 +14671,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B486" s="20" t="s">
         <v>70</v>
@@ -14693,17 +14696,21 @@
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A487" s="40"/>
+      <c r="A487" s="40">
+        <v>45046</v>
+      </c>
       <c r="B487" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C487" s="13"/>
+      <c r="C487" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D487" s="39"/>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G487" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H487" s="39">
         <v>2</v>
@@ -14715,15 +14722,19 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A488" s="40"/>
+      <c r="A488" s="40">
+        <v>45077</v>
+      </c>
       <c r="B488" s="20"/>
-      <c r="C488" s="13"/>
+      <c r="C488" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D488" s="39"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G488" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H488" s="39"/>
       <c r="I488" s="9"/>
@@ -14731,23 +14742,35 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A489" s="40"/>
-      <c r="B489" s="20"/>
-      <c r="C489" s="13"/>
+      <c r="A489" s="40">
+        <v>45107</v>
+      </c>
+      <c r="B489" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C489" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D489" s="39"/>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H489" s="39"/>
+      <c r="G489" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H489" s="39">
+        <v>2</v>
+      </c>
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
-      <c r="K489" s="20"/>
+      <c r="K489" s="20" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A490" s="40"/>
+      <c r="A490" s="40">
+        <v>45138</v>
+      </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
@@ -14763,7 +14786,9 @@
       <c r="K490" s="20"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A491" s="40"/>
+      <c r="A491" s="40">
+        <v>45169</v>
+      </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
       <c r="D491" s="39"/>
@@ -14779,7 +14804,9 @@
       <c r="K491" s="20"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A492" s="40"/>
+      <c r="A492" s="40">
+        <v>45199</v>
+      </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
@@ -14795,7 +14822,9 @@
       <c r="K492" s="20"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A493" s="40"/>
+      <c r="A493" s="40">
+        <v>45230</v>
+      </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
       <c r="D493" s="39"/>
@@ -14811,7 +14840,9 @@
       <c r="K493" s="20"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A494" s="40"/>
+      <c r="A494" s="40">
+        <v>45260</v>
+      </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
@@ -14827,7 +14858,9 @@
       <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A495" s="40"/>
+      <c r="A495" s="40">
+        <v>45291</v>
+      </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
       <c r="D495" s="39"/>
@@ -14843,7 +14876,9 @@
       <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A496" s="40"/>
+      <c r="A496" s="40">
+        <v>45322</v>
+      </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
       <c r="D496" s="39"/>
@@ -14859,7 +14894,9 @@
       <c r="K496" s="20"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A497" s="40"/>
+      <c r="A497" s="40">
+        <v>45351</v>
+      </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
       <c r="D497" s="39"/>
@@ -14875,7 +14912,9 @@
       <c r="K497" s="20"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A498" s="40"/>
+      <c r="A498" s="40">
+        <v>45382</v>
+      </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
       <c r="D498" s="39"/>
@@ -15526,7 +15565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -15647,7 +15686,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>242.82550000000003</v>
+        <v>248.32550000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
